--- a/biology/Zoologie/Epipedobates_narinensis/Epipedobates_narinensis.xlsx
+++ b/biology/Zoologie/Epipedobates_narinensis/Epipedobates_narinensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Epipedobates narinensis est une espèce d'amphibiens de la famille des Dendrobatidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Epipedobates narinensis est une espèce d'amphibiens de la famille des Dendrobatidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du département de Nariño en Colombie[1]. Elle se rencontre à Barbacoas vers 600 m d'altitude.
-Cette espèce vit principalement dans les forêts tropicales humides de basse altitude. On peut aussi la trouver dans des endroits ouverts, comme les plantation d'huile de palme[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du département de Nariño en Colombie. Elle se rencontre à Barbacoas vers 600 m d'altitude.
+Cette espèce vit principalement dans les forêts tropicales humides de basse altitude. On peut aussi la trouver dans des endroits ouverts, comme les plantation d'huile de palme. 
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 15,3 à 16,9 mm[3]. Son dos est vert foncé et ses flancs noirs. Sa face ventrale est vert clair taché de noir.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 15,3 à 16,9 mm. Son dos est vert foncé et ses flancs noirs. Sa face ventrale est vert clair taché de noir.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de narin[o] et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte.
 </t>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Mueses-Cisneros, Cepeda-Quilindo &amp; Moreno-Quintero, 2008 : Una nueva especies de Epipedobates (Anura: Dendrobatidae) del suroccidente de Colombia. Papéis Avulsos de Zoologia, vol. 48, no 1, p. 1-10 (texte intégral).</t>
         </is>
